--- a/Costs of Living/Calorie Calculator.xlsx
+++ b/Costs of Living/Calorie Calculator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Items</t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">Potatoes </t>
   </si>
   <si>
-    <t>Right now you adjust the amount column and the 2000 calorie basket price should adjust</t>
-  </si>
-  <si>
     <t>2000 Calorie Cost</t>
   </si>
   <si>
@@ -112,6 +109,21 @@
   </si>
   <si>
     <t>High carb, unhealthy, imbalanced diet</t>
+  </si>
+  <si>
+    <t>% Calories</t>
+  </si>
+  <si>
+    <t>Carbs</t>
+  </si>
+  <si>
+    <t>Fats</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Fruit</t>
   </si>
 </sst>
 </file>
@@ -121,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +166,13 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,10 +308,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -324,9 +344,12 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,7 +652,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S11" sqref="S11"/>
+      <selection pane="topRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +662,7 @@
     <col min="6" max="6" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="0" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" style="6" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15.109375" style="6" hidden="1" customWidth="1"/>
@@ -651,7 +674,7 @@
     <col min="18" max="18" width="8" style="6" customWidth="1"/>
     <col min="19" max="19" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" style="6"/>
-    <col min="21" max="21" width="11.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
@@ -666,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -678,9 +701,11 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
@@ -688,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="4" t="s">
@@ -698,9 +723,11 @@
         <v>4</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,9 +735,11 @@
         <v>4</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -739,7 +768,10 @@
         <f>F2/$C$2*$D2</f>
         <v>4.7426699999999995</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31">
+        <f>G2/$G$13</f>
+        <v>0.2481259407802287</v>
+      </c>
       <c r="J2" s="27">
         <v>400</v>
       </c>
@@ -763,7 +795,10 @@
         <f>N2/$C$2*$D2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="30"/>
+      <c r="Q2" s="31">
+        <f t="shared" ref="Q2:Q10" si="0">O2/$G$13</f>
+        <v>0</v>
+      </c>
       <c r="R2" s="27">
         <v>100</v>
       </c>
@@ -775,7 +810,10 @@
         <f>R2/$C$2*$D2</f>
         <v>1.0609999999999999</v>
       </c>
-      <c r="U2" s="11"/>
+      <c r="U2" s="31">
+        <f>S2/$G$13</f>
+        <v>5.5509159011236854E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -804,7 +842,10 @@
         <f>F3/$C$3*$D3</f>
         <v>2.8249999999999997</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="31">
+        <f t="shared" ref="I3:I10" si="1">G3/$G$13</f>
+        <v>0.36130961608665429</v>
+      </c>
       <c r="J3" s="27">
         <v>222</v>
       </c>
@@ -828,7 +869,10 @@
         <f>N3/$C$3*$D3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="30"/>
+      <c r="Q3" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R3" s="27">
         <v>202</v>
       </c>
@@ -840,7 +884,10 @@
         <f>R3/$C$3*$D3</f>
         <v>2.2826</v>
       </c>
-      <c r="U3" s="11"/>
+      <c r="U3" s="31">
+        <f t="shared" ref="U3:U10" si="2">S3/$G$13</f>
+        <v>0.29193816979801662</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -869,7 +916,10 @@
         <f>F4/$C$4*$D4</f>
         <v>2.6449999999999996</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="31">
+        <f t="shared" si="1"/>
+        <v>0.10951807048162947</v>
+      </c>
       <c r="J4" s="27">
         <v>200</v>
       </c>
@@ -893,7 +943,10 @@
         <f>N4/$C$4*$D4</f>
         <v>13.224999999999998</v>
       </c>
-      <c r="Q4" s="30"/>
+      <c r="Q4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.54759035240814735</v>
+      </c>
       <c r="R4" s="27">
         <v>300</v>
       </c>
@@ -905,7 +958,10 @@
         <f>R4/$C$4*$D4</f>
         <v>7.9349999999999987</v>
       </c>
-      <c r="U4" s="11"/>
+      <c r="U4" s="31">
+        <f t="shared" si="2"/>
+        <v>0.32855421144488839</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -934,7 +990,10 @@
         <f>F5/$C$5*$D5</f>
         <v>1.9213333333333331</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="31">
+        <f t="shared" si="1"/>
+        <v>5.0008251361474639E-2</v>
+      </c>
       <c r="J5" s="27">
         <v>200</v>
       </c>
@@ -958,7 +1017,10 @@
         <f>N5/$C$5*$D5</f>
         <v>2.8627866666666661</v>
       </c>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4512294528597214E-2</v>
+      </c>
       <c r="R5" s="27">
         <v>100</v>
       </c>
@@ -970,7 +1032,10 @@
         <f>R5/$C$5*$D5</f>
         <v>0.96066666666666656</v>
       </c>
-      <c r="U5" s="11"/>
+      <c r="U5" s="31">
+        <f t="shared" si="2"/>
+        <v>2.5004125680737319E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -999,7 +1064,10 @@
         <f>F6/$C$6*$D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J6" s="27">
         <v>0</v>
       </c>
@@ -1023,7 +1091,10 @@
         <f>N6/$C$6*$D6</f>
         <v>16.959999999999997</v>
       </c>
-      <c r="Q6" s="30"/>
+      <c r="Q6" s="31">
+        <f t="shared" si="0"/>
+        <v>0.30004950816884784</v>
+      </c>
       <c r="R6" s="27">
         <v>100</v>
       </c>
@@ -1035,7 +1106,10 @@
         <f>R6/$C$6*$D6</f>
         <v>8.4799999999999986</v>
       </c>
-      <c r="U6" s="11"/>
+      <c r="U6" s="31">
+        <f t="shared" si="2"/>
+        <v>0.15002475408442392</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -1064,7 +1138,10 @@
         <f>F7/$C$7*$D7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J7" s="27">
         <v>3</v>
       </c>
@@ -1088,7 +1165,10 @@
         <f>N7/$C$7*$D7</f>
         <v>2.82</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="31">
+        <f t="shared" si="0"/>
+        <v>7.8012872123900442E-2</v>
+      </c>
       <c r="R7" s="27">
         <v>2</v>
       </c>
@@ -1100,7 +1180,10 @@
         <f>R7/$C$7*$D7</f>
         <v>2.82</v>
       </c>
-      <c r="U7" s="11"/>
+      <c r="U7" s="31">
+        <f t="shared" si="2"/>
+        <v>7.8012872123900442E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1129,7 +1212,10 @@
         <f>F8/$C$8*$D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="27">
         <v>100</v>
       </c>
@@ -1153,7 +1239,10 @@
         <f>N8/$C$8*$D8</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="30"/>
+      <c r="Q8" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R8" s="27">
         <v>100</v>
       </c>
@@ -1165,7 +1254,10 @@
         <f>R8/$C$8*$D8</f>
         <v>1.0310000000000001</v>
       </c>
-      <c r="U8" s="11"/>
+      <c r="U8" s="31">
+        <f t="shared" si="2"/>
+        <v>2.3503878139893082E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1194,7 +1286,10 @@
         <f>F9/$C$9*$D9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J9" s="27">
         <v>100</v>
       </c>
@@ -1218,7 +1313,10 @@
         <f>N9/$C$9*$D9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="30"/>
+      <c r="Q9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R9" s="27">
         <v>100</v>
       </c>
@@ -1230,7 +1328,10 @@
         <f>R9/$C$9*$D9</f>
         <v>1.873</v>
       </c>
-      <c r="U9" s="11"/>
+      <c r="U9" s="31">
+        <f t="shared" si="2"/>
+        <v>9.001485245065435E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1259,7 +1360,10 @@
         <f>F10/$C$10*$D10</f>
         <v>2.8014000000000001</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="31">
+        <f t="shared" si="1"/>
+        <v>0.23103812129001283</v>
+      </c>
       <c r="J10" s="27">
         <v>100</v>
       </c>
@@ -1283,7 +1387,10 @@
         <f>N10/$C$10*$D10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="30"/>
+      <c r="Q10" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="R10" s="27">
         <v>100</v>
       </c>
@@ -1295,7 +1402,10 @@
         <f>R10/$C$10*$D10</f>
         <v>0.46689999999999998</v>
       </c>
-      <c r="U10" s="11"/>
+      <c r="U10" s="31">
+        <f t="shared" si="2"/>
+        <v>3.8506353548335474E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
@@ -1328,47 +1438,47 @@
       <c r="E12" s="10"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="15">
         <f>SUM(H2:H10)</f>
         <v>14.935403333333333</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="15">
         <f>SUM(L2:L10)</f>
         <v>21.564833333333329</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P12" s="15">
         <f>SUM(P2:P10)</f>
         <v>35.86778666666666</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T12" s="15">
         <f>SUM(T2:T10)</f>
         <v>26.910166666666662</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1387,7 +1497,7 @@
         <v>448.06209999999999</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="20">
@@ -1399,7 +1509,7 @@
         <v>646.94499999999982</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="20">
@@ -1411,7 +1521,7 @@
         <v>1076.0335999999998</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R13" s="17"/>
       <c r="S13" s="20">
@@ -1423,80 +1533,163 @@
         <v>807.30499999999984</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="5"/>
       <c r="F14" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="5"/>
       <c r="J14" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14" s="24"/>
       <c r="T14" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" s="5"/>
     </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="32">
+        <f>SUM(I2,I3,I10)</f>
+        <v>0.84047367815689578</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="32">
+        <f>SUM(Q2,Q3,Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="32">
+        <f>SUM(U2,U3,U10)</f>
+        <v>0.38595368235758898</v>
+      </c>
+    </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="32">
+        <f>SUM(I4+I7)</f>
+        <v>0.10951807048162947</v>
+      </c>
       <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
+      <c r="N16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="32">
+        <f>SUM(Q4+Q7)</f>
+        <v>0.62560322453204775</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="32">
+        <f>SUM(U4+U7)</f>
+        <v>0.40656708356878885</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="32">
+        <f>SUM(I5+I6)</f>
+        <v>5.0008251361474639E-2</v>
       </c>
       <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="32">
+        <f>SUM(Q5+Q6)</f>
+        <v>0.37456180269744505</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="32">
+        <f>SUM(U5+U6)</f>
+        <v>0.17502887976516124</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="32">
+        <f>SUM(I8+I9)</f>
+        <v>0</v>
+      </c>
       <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="32">
+        <f>SUM(Q8+Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="32">
+        <f>SUM(U8+U9)</f>
+        <v>3.2505363384958519E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J24" s="25"/>
     </row>
   </sheetData>
